--- a/StructureDefinition-BeModelMedicationDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-BeModelMedicationDispense.xlsx
+++ b/StructureDefinition-BeModelMedicationDispense.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
